--- a/console/Networking/launchExcel/components/estimated_cost.xlsx
+++ b/console/Networking/launchExcel/components/estimated_cost.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/launchExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB5630-9917-FC4D-B7AF-AA60B7B2D8EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -145,18 +151,19 @@
     <t>(Pay By Configuration)</t>
   </si>
   <si>
-    <t>(Public IP),</t>
-  </si>
-  <si>
     <t>(Traffic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EIP),</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -540,21 +547,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -576,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -587,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -595,10 +602,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -606,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
